--- a/medicine/Mort/Cimetière_militaire_Motor_Car/Cimetière_militaire_Motor_Car.xlsx
+++ b/medicine/Mort/Cimetière_militaire_Motor_Car/Cimetière_militaire_Motor_Car.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Motor_Car</t>
+          <t>Cimetière_militaire_Motor_Car</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cimetière militaire Motor Car ou Motor Car Corner Cemetery[1] est un cimetière militaire britannique de la Première Guerre mondiale, situé dans le village belge de Ploegsteert. Le cimetière est situé à 2 100 m au sud du centre du village et à seulement 600 m de la frontière française. Elle a été conçue par George Goldsmith et est entretenue par la Commonwealth War Graves Commission. Le site se présente sous la forme d'un rectangle étroit avec deux renfoncements en cascade dans le coin ouest et est entouré sur trois côtés par un mur de briques. Le site est bordé par un fossé le long de la rue. La Croix du Sacrifice est sur la gauche juste avant l'entrée.
+Le cimetière militaire Motor Car ou Motor Car Corner Cemetery est un cimetière militaire britannique de la Première Guerre mondiale, situé dans le village belge de Ploegsteert. Le cimetière est situé à 2 100 m au sud du centre du village et à seulement 600 m de la frontière française. Elle a été conçue par George Goldsmith et est entretenue par la Commonwealth War Graves Commission. Le site se présente sous la forme d'un rectangle étroit avec deux renfoncements en cascade dans le coin ouest et est entouré sur trois côtés par un mur de briques. Le site est bordé par un fossé le long de la rue. La Croix du Sacrifice est sur la gauche juste avant l'entrée.
 Il y a 132 victimes enterrées.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Motor_Car</t>
+          <t>Cimetière_militaire_Motor_Car</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À cet endroit, Motor Car Corner marquait le point qu'aucun véhicule n'était autorisé à dépasser. Le cimetière a été commencé en juin 1917 au début de la deuxième bataille de Messines et a été utilisé jusqu'à la fin mars 1918. Entre le 10 avril et le 29 septembre 1918, le cimetière était aux mains des Allemands à la suite de l'offensive allemande du printemps. Pendant cette occupation, elle a été étendue vers le nord avec des pertes allemandes. Ces tombes ont ensuite été enlevées. Une tombe allemande demeure.
 Ils s'y trouvent 38 Britanniques, 9 Australiens, 84 Néo-Zélandais et 1 Allemand sont commémorés. Il y a 5 tombes qui n'ont pas pu être identifiés.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_Motor_Car</t>
+          <t>Cimetière_militaire_Motor_Car</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,83 @@
           <t>Tombes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Allan Holz et Ernest John Holz sont deux frères néo-zélandais décédés le 13 juin 1917. Ils sont enterrés les uns à côté des autres.
-Militaire distingué
-PGA Taylor, caporal dans le corps des mitrailleuses (infanterie) a reçu la médaille militaire (MM).
-Alias
-Le soldat Frederick Dodds a servi dans le Northamptonshire Regiment sous le pseudonyme de J. Smith.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Allan Holz et Ernest John Holz sont deux frères néo-zélandais décédés le 13 juin 1917. Ils sont enterrés les uns à côté des autres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_Motor_Car</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_Motor_Car</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tombes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Militaire distingué</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PGA Taylor, caporal dans le corps des mitrailleuses (infanterie) a reçu la médaille militaire (MM).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_militaire_Motor_Car</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_militaire_Motor_Car</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tombes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le soldat Frederick Dodds a servi dans le Northamptonshire Regiment sous le pseudonyme de J. Smith.</t>
         </is>
       </c>
     </row>
